--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.03438764648569</v>
+        <v>8.893586666666666</v>
       </c>
       <c r="H2">
-        <v>8.03438764648569</v>
+        <v>26.68076</v>
       </c>
       <c r="I2">
-        <v>0.744256133423718</v>
+        <v>0.7066310027692895</v>
       </c>
       <c r="J2">
-        <v>0.744256133423718</v>
+        <v>0.7066310027692896</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.03088506341489</v>
+        <v>29.420614</v>
       </c>
       <c r="N2">
-        <v>5.03088506341489</v>
+        <v>88.261842</v>
       </c>
       <c r="O2">
-        <v>0.2599005397699902</v>
+        <v>0.5865186809777162</v>
       </c>
       <c r="P2">
-        <v>0.2599005397699902</v>
+        <v>0.5865186809777162</v>
       </c>
       <c r="Q2">
-        <v>40.42008080438997</v>
+        <v>261.6547803955467</v>
       </c>
       <c r="R2">
-        <v>40.42008080438997</v>
+        <v>2354.89302355992</v>
       </c>
       <c r="S2">
-        <v>0.1934325708039501</v>
+        <v>0.4144522836822046</v>
       </c>
       <c r="T2">
-        <v>0.1934325708039501</v>
+        <v>0.4144522836822047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.03438764648569</v>
+        <v>8.893586666666666</v>
       </c>
       <c r="H3">
-        <v>8.03438764648569</v>
+        <v>26.68076</v>
       </c>
       <c r="I3">
-        <v>0.744256133423718</v>
+        <v>0.7066310027692895</v>
       </c>
       <c r="J3">
-        <v>0.744256133423718</v>
+        <v>0.7066310027692896</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.06264603791144</v>
+        <v>4.080312</v>
       </c>
       <c r="N3">
-        <v>4.06264603791144</v>
+        <v>12.240936</v>
       </c>
       <c r="O3">
-        <v>0.2098803460699372</v>
+        <v>0.08134361887272465</v>
       </c>
       <c r="P3">
-        <v>0.2098803460699372</v>
+        <v>0.08134361887272466</v>
       </c>
       <c r="Q3">
-        <v>32.64087313903971</v>
+        <v>36.28860839904</v>
       </c>
       <c r="R3">
-        <v>32.64087313903971</v>
+        <v>326.59747559136</v>
       </c>
       <c r="S3">
-        <v>0.1562047348476433</v>
+        <v>0.05747992297291632</v>
       </c>
       <c r="T3">
-        <v>0.1562047348476433</v>
+        <v>0.05747992297291634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.03438764648569</v>
+        <v>8.893586666666666</v>
       </c>
       <c r="H4">
-        <v>8.03438764648569</v>
+        <v>26.68076</v>
       </c>
       <c r="I4">
-        <v>0.744256133423718</v>
+        <v>0.7066310027692895</v>
       </c>
       <c r="J4">
-        <v>0.744256133423718</v>
+        <v>0.7066310027692896</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.2634316347541</v>
+        <v>16.660501</v>
       </c>
       <c r="N4">
-        <v>10.2634316347541</v>
+        <v>49.981503</v>
       </c>
       <c r="O4">
-        <v>0.5302191141600725</v>
+        <v>0.3321377001495591</v>
       </c>
       <c r="P4">
-        <v>0.5302191141600725</v>
+        <v>0.3321377001495591</v>
       </c>
       <c r="Q4">
-        <v>82.46038833681878</v>
+        <v>148.1716095535866</v>
       </c>
       <c r="R4">
-        <v>82.46038833681878</v>
+        <v>1333.54448598228</v>
       </c>
       <c r="S4">
-        <v>0.3946188277721245</v>
+        <v>0.2346987961141686</v>
       </c>
       <c r="T4">
-        <v>0.3946188277721245</v>
+        <v>0.2346987961141686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.04417559971855</v>
+        <v>2.082649333333334</v>
       </c>
       <c r="H5">
-        <v>2.04417559971855</v>
+        <v>6.247948000000001</v>
       </c>
       <c r="I5">
-        <v>0.189359823651415</v>
+        <v>0.1654748125799407</v>
       </c>
       <c r="J5">
-        <v>0.189359823651415</v>
+        <v>0.1654748125799407</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.03088506341489</v>
+        <v>29.420614</v>
       </c>
       <c r="N5">
-        <v>5.03088506341489</v>
+        <v>88.261842</v>
       </c>
       <c r="O5">
-        <v>0.2599005397699902</v>
+        <v>0.5865186809777162</v>
       </c>
       <c r="P5">
-        <v>0.2599005397699902</v>
+        <v>0.5865186809777162</v>
       </c>
       <c r="Q5">
-        <v>10.28401249162123</v>
+        <v>61.27282213335735</v>
       </c>
       <c r="R5">
-        <v>10.28401249162123</v>
+        <v>551.4553992002161</v>
       </c>
       <c r="S5">
-        <v>0.04921472037775292</v>
+        <v>0.09705406880942161</v>
       </c>
       <c r="T5">
-        <v>0.04921472037775292</v>
+        <v>0.09705406880942161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.04417559971855</v>
+        <v>2.082649333333334</v>
       </c>
       <c r="H6">
-        <v>2.04417559971855</v>
+        <v>6.247948000000001</v>
       </c>
       <c r="I6">
-        <v>0.189359823651415</v>
+        <v>0.1654748125799407</v>
       </c>
       <c r="J6">
-        <v>0.189359823651415</v>
+        <v>0.1654748125799407</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.06264603791144</v>
+        <v>4.080312</v>
       </c>
       <c r="N6">
-        <v>4.06264603791144</v>
+        <v>12.240936</v>
       </c>
       <c r="O6">
-        <v>0.2098803460699372</v>
+        <v>0.08134361887272465</v>
       </c>
       <c r="P6">
-        <v>0.2098803460699372</v>
+        <v>0.08134361887272466</v>
       </c>
       <c r="Q6">
-        <v>8.30476190099181</v>
+        <v>8.497859066592003</v>
       </c>
       <c r="R6">
-        <v>8.30476190099181</v>
+        <v>76.48073159932802</v>
       </c>
       <c r="S6">
-        <v>0.03974290531970127</v>
+        <v>0.01346032008753824</v>
       </c>
       <c r="T6">
-        <v>0.03974290531970127</v>
+        <v>0.01346032008753824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.04417559971855</v>
+        <v>2.082649333333334</v>
       </c>
       <c r="H7">
-        <v>2.04417559971855</v>
+        <v>6.247948000000001</v>
       </c>
       <c r="I7">
-        <v>0.189359823651415</v>
+        <v>0.1654748125799407</v>
       </c>
       <c r="J7">
-        <v>0.189359823651415</v>
+        <v>0.1654748125799407</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.2634316347541</v>
+        <v>16.660501</v>
       </c>
       <c r="N7">
-        <v>10.2634316347541</v>
+        <v>49.981503</v>
       </c>
       <c r="O7">
-        <v>0.5302191141600725</v>
+        <v>0.3321377001495591</v>
       </c>
       <c r="P7">
-        <v>0.5302191141600725</v>
+        <v>0.3321377001495591</v>
       </c>
       <c r="Q7">
-        <v>20.9802565171438</v>
+        <v>34.69798130064934</v>
       </c>
       <c r="R7">
-        <v>20.9802565171438</v>
+        <v>312.2818317058441</v>
       </c>
       <c r="S7">
-        <v>0.1004021979539608</v>
+        <v>0.05496042368298083</v>
       </c>
       <c r="T7">
-        <v>0.1004021979539608</v>
+        <v>0.05496042368298083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7166284702899181</v>
+        <v>1.609663333333333</v>
       </c>
       <c r="H8">
-        <v>0.7166284702899181</v>
+        <v>4.82899</v>
       </c>
       <c r="I8">
-        <v>0.06638404292486712</v>
+        <v>0.1278941846507698</v>
       </c>
       <c r="J8">
-        <v>0.06638404292486712</v>
+        <v>0.1278941846507698</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.03088506341489</v>
+        <v>29.420614</v>
       </c>
       <c r="N8">
-        <v>5.03088506341489</v>
+        <v>88.261842</v>
       </c>
       <c r="O8">
-        <v>0.2599005397699902</v>
+        <v>0.5865186809777162</v>
       </c>
       <c r="P8">
-        <v>0.2599005397699902</v>
+        <v>0.5865186809777162</v>
       </c>
       <c r="Q8">
-        <v>3.60527546719941</v>
+        <v>47.35728359995333</v>
       </c>
       <c r="R8">
-        <v>3.60527546719941</v>
+        <v>426.21555239958</v>
       </c>
       <c r="S8">
-        <v>0.01725324858828716</v>
+        <v>0.07501232848608996</v>
       </c>
       <c r="T8">
-        <v>0.01725324858828716</v>
+        <v>0.07501232848608996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7166284702899181</v>
+        <v>1.609663333333333</v>
       </c>
       <c r="H9">
-        <v>0.7166284702899181</v>
+        <v>4.82899</v>
       </c>
       <c r="I9">
-        <v>0.06638404292486712</v>
+        <v>0.1278941846507698</v>
       </c>
       <c r="J9">
-        <v>0.06638404292486712</v>
+        <v>0.1278941846507698</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.06264603791144</v>
+        <v>4.080312</v>
       </c>
       <c r="N9">
-        <v>4.06264603791144</v>
+        <v>12.240936</v>
       </c>
       <c r="O9">
-        <v>0.2098803460699372</v>
+        <v>0.08134361887272465</v>
       </c>
       <c r="P9">
-        <v>0.2098803460699372</v>
+        <v>0.08134361887272466</v>
       </c>
       <c r="Q9">
-        <v>2.911407815477872</v>
+        <v>6.56792861496</v>
       </c>
       <c r="R9">
-        <v>2.911407815477872</v>
+        <v>59.11135753464001</v>
       </c>
       <c r="S9">
-        <v>0.01393270590259268</v>
+        <v>0.01040337581227009</v>
       </c>
       <c r="T9">
-        <v>0.01393270590259268</v>
+        <v>0.01040337581227009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7166284702899181</v>
+        <v>1.609663333333333</v>
       </c>
       <c r="H10">
-        <v>0.7166284702899181</v>
+        <v>4.82899</v>
       </c>
       <c r="I10">
-        <v>0.06638404292486712</v>
+        <v>0.1278941846507698</v>
       </c>
       <c r="J10">
-        <v>0.06638404292486712</v>
+        <v>0.1278941846507698</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2634316347541</v>
+        <v>16.660501</v>
       </c>
       <c r="N10">
-        <v>10.2634316347541</v>
+        <v>49.981503</v>
       </c>
       <c r="O10">
-        <v>0.5302191141600725</v>
+        <v>0.3321377001495591</v>
       </c>
       <c r="P10">
-        <v>0.5302191141600725</v>
+        <v>0.3321377001495591</v>
       </c>
       <c r="Q10">
-        <v>7.355067312338984</v>
+        <v>26.81779757466333</v>
       </c>
       <c r="R10">
-        <v>7.355067312338984</v>
+        <v>241.36017817197</v>
       </c>
       <c r="S10">
-        <v>0.03519808843398727</v>
+        <v>0.04247848035240972</v>
       </c>
       <c r="T10">
-        <v>0.03519808843398727</v>
+        <v>0.04247848035240972</v>
       </c>
     </row>
   </sheetData>
